--- a/workbooks/register functions.xlsx
+++ b/workbooks/register functions.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="152511" calcMode="manual" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,63 +24,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>The frequency of the fixed rate leg</t>
-  </si>
-  <si>
-    <t>The fixed rate of the swap</t>
-  </si>
-  <si>
-    <t>The frequency of the floating leg</t>
-  </si>
-  <si>
-    <t>The daycount convention of the floting leg</t>
-  </si>
-  <si>
-    <t>The reference index of the floating leg</t>
-  </si>
-  <si>
-    <t>The discounting curve (optional)</t>
-  </si>
-  <si>
-    <t>Trigger for recalculation</t>
-  </si>
-  <si>
-    <t>ADDIN.RETRIEVE.ERROR</t>
-  </si>
-  <si>
-    <t>INSTANCE.AJUSTED.CURVE</t>
-  </si>
-  <si>
-    <t>CCPPPPCCPP#</t>
-  </si>
-  <si>
-    <t>object identifier,calculation date,settlement date,instrument identifiers,quotes,calendar,fitting method,bond selection rule,trigger</t>
-  </si>
-  <si>
-    <t>The settlement date of the curve</t>
-  </si>
-  <si>
-    <t>The instruments used to fit the curve</t>
-  </si>
-  <si>
-    <t>The calendar of the curve</t>
-  </si>
-  <si>
-    <t>This function provide the eigen vectors of Schur's decomposition</t>
-  </si>
-  <si>
-    <t>The matrix to decompose</t>
-  </si>
-  <si>
-    <t>matrix identifier,trigger</t>
-  </si>
-  <si>
-    <t>This function provide Schur decomposition's eigen values</t>
-  </si>
-  <si>
-    <t>Matrix identifier</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t>Excel(xlfRegister, 0, 15, &amp; xDll,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x15""xlInstrumentConvexity"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x08""PCPPECP#"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x14""BOND.CONVEXITY"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x5B""Identifiant de l'instrument,date d'évaluation,date de règlement,prix,convention,déclencheur"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x01""1"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x15""xlObjectTools - Bond"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x00"""),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x53""Cette fonction calcule la convexité de l'instrument pour un prix et une date donnée"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x16""Le nom de l'instrument"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x17""Le prix de l'instrument"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x17""La date d'évaluation"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x24""La date de règlement de l'instrument"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x1F""La convention de taux du calcul"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x1C""Le déclencheur du recalcul  ")) ;</t>
+  </si>
+  <si>
+    <t>xlInstrumentConvexity</t>
+  </si>
+  <si>
+    <t>PCPPECP#</t>
+  </si>
+  <si>
+    <t>BOND.CONVEXITY</t>
+  </si>
+  <si>
+    <t>identifier,value date,settlement,price,convetion,trigger</t>
+  </si>
+  <si>
+    <t>xlObjectTools - Bond</t>
+  </si>
+  <si>
+    <t>This function calculates the convexity of a given bond for a given price and settlement date</t>
+  </si>
+  <si>
+    <t>The name of the instrument</t>
+  </si>
+  <si>
+    <t>The price of the instrument</t>
+  </si>
+  <si>
+    <t>The settlement date of the instrument (optional)</t>
+  </si>
+  <si>
+    <t>The valuation date (optional)</t>
+  </si>
+  <si>
+    <t>The rate convention of the instrument (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigger for recalculation   </t>
   </si>
 </sst>
 </file>
@@ -398,94 +422,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="108" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C1" t="str">
         <f>"Excel(xlfRegister, 0, "&amp;SUM(D:D) + 2 &amp; ", &amp; xDll,"</f>
-        <v>Excel(xlfRegister, 0, 22, &amp; xDll,</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>Excel(xlfRegister, 0, 17, &amp; xDll,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>DEC2HEX(LEN(B2))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C20" si="0">IF(B2="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),")</f>
-        <v xml:space="preserve"> TempStrNoSize("\x16""INSTANCE.AJUSTED.CURVE"),</v>
+        <f t="shared" ref="C2:C37" si="0">" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),"</f>
+        <v xml:space="preserve"> TempStrNoSize("\x15""xlInstrumentConvexity"),</v>
       </c>
       <c r="D2">
         <f>IF(C2&lt;&gt;"",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A22" si="1">DEC2HEX(LEN(B3))</f>
-        <v>B</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" t="str">
-        <f>IF(B3="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A3)&lt;16,"0","")&amp;A3&amp;""""&amp;""""&amp;B3&amp;""""&amp;"),")</f>
-        <v xml:space="preserve"> TempStrNoSize("\x0B""CCPPPPCCPP#"),</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x08""PCPPECP#"),</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D37" si="2">IF(C3&lt;&gt;"",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>E</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x14""ADDIN.RETRIEVE.ERROR"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x0E""BOND.CONVEXITY"),</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x84""object identifier,calculation date,settlement date,instrument identifiers,quotes,calendar,fitting method,bond selection rule,trigger"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x38""identifier,value date,settlement,price,convetion,trigger"),</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -502,298 +526,325 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x19""matrix identifier,trigger"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x14""xlObjectTools - Bond"),</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x38""This function provide Schur decomposition's eigen values"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""Matrix identifier"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
+        <v>5C</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x20""The settlement date of the curve"),</v>
+        <f t="shared" ref="C9:C20" si="3">IF(B10="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A10)&lt;16,"0","")&amp;A10&amp;""""&amp;""""&amp;B10&amp;""""&amp;"),")</f>
+        <v xml:space="preserve"> TempStrNoSize("\x5C""This function calculates the convexity of a given bond for a given price and settlement date"),</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
+        <v>1A</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1A""The name of the instrument"),</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>1B</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1B""The price of the instrument"),</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>1D</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1D""The valuation date (optional)"),</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> TempStrNoSize("\x30""The settlement date of the instrument (optional)"),</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x25""The instruments used to fit the curve"),</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="str">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x19""The calendar of the curve"),</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="str">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x23""The frequency of the fixed rate leg"),</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x40""This function provide the eigen vectors of Schur's decomposition"),</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="str">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x17""The matrix to decompose"),</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> TempStrNoSize("\x30""The rate convention of the instrument (optional)"),</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>1C</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x21""The frequency of the floating leg"),</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1C""Trigger for recalculation   "),</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
-        <v>2A</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x2A""The daycount convention of the floting leg"),</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
-        <v>1A</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1A""The fixed rate of the swap"),</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x27""The reference index of the floating leg"),</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x20""The discounting curve (optional)"),</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C21" t="str">
         <f>IF(B21="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A21)&lt;16,"0","")&amp;A21&amp;""""&amp;""""&amp;B21&amp;""""&amp;"),")</f>
-        <v xml:space="preserve"> TempStrNoSize("\x19""Trigger for recalculation"),</v>
+        <v/>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22:C37" si="3">IF(B22="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A22)&lt;16,"0","")&amp;A22&amp;""""&amp;""""&amp;B22&amp;""""&amp;"),")</f>
+        <f t="shared" ref="C22:C37" si="4">IF(B22="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A22)&lt;16,"0","")&amp;A22&amp;""""&amp;""""&amp;B22&amp;""""&amp;"),")</f>
         <v/>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D25">
@@ -801,9 +852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D26">
@@ -811,9 +862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D27">
@@ -821,9 +872,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D28">
@@ -831,9 +882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D29">
@@ -841,9 +892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D30">
@@ -851,9 +902,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D31">
@@ -861,9 +912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D32">
@@ -873,7 +924,7 @@
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D33">
@@ -883,7 +934,7 @@
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D34">
@@ -893,7 +944,7 @@
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D35">
@@ -903,7 +954,7 @@
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D36">
@@ -913,7 +964,7 @@
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D37">

--- a/workbooks/register functions.xlsx
+++ b/workbooks/register functions.xlsx
@@ -24,87 +24,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>Excel(xlfRegister, 0, 15, &amp; xDll,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x15""xlInstrumentConvexity"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x08""PCPPECP#"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x14""BOND.CONVEXITY"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x5B""Identifiant de l'instrument,date d'évaluation,date de règlement,prix,convention,déclencheur"),</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t xml:space="preserve">            TempStrNoSize("\x01""1"),</t>
   </si>
   <si>
-    <t xml:space="preserve">            TempStrNoSize("\x15""xlObjectTools - Bond"),</t>
-  </si>
-  <si>
     <t xml:space="preserve">            TempStrNoSize("\x00"""),</t>
   </si>
   <si>
-    <t xml:space="preserve">            TempStrNoSize("\x53""Cette fonction calcule la convexité de l'instrument pour un prix et une date donnée"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x16""Le nom de l'instrument"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x17""Le prix de l'instrument"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x17""La date d'évaluation"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x24""La date de règlement de l'instrument"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x1F""La convention de taux du calcul"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x1C""Le déclencheur du recalcul  ")) ;</t>
-  </si>
-  <si>
-    <t>xlInstrumentConvexity</t>
-  </si>
-  <si>
-    <t>PCPPECP#</t>
-  </si>
-  <si>
-    <t>BOND.CONVEXITY</t>
-  </si>
-  <si>
-    <t>identifier,value date,settlement,price,convetion,trigger</t>
-  </si>
-  <si>
-    <t>xlObjectTools - Bond</t>
-  </si>
-  <si>
-    <t>This function calculates the convexity of a given bond for a given price and settlement date</t>
-  </si>
-  <si>
     <t>The name of the instrument</t>
   </si>
   <si>
-    <t>The price of the instrument</t>
-  </si>
-  <si>
-    <t>The settlement date of the instrument (optional)</t>
-  </si>
-  <si>
-    <t>The valuation date (optional)</t>
-  </si>
-  <si>
-    <t>The rate convention of the instrument (optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trigger for recalculation   </t>
+    <t xml:space="preserve">        Excel(xlfRegister, 0, 14, &amp; xDll,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x1D""xlInitiateSwaptionHelper"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x06""PCCEP#"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x1B""OBJECT.VOLATILITY.SURFACE.SWAPTION.HELPER"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x38""Identifiant de l'objet,Identifiant du titre,Prix,Trigger"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x17""xlObjectTools - Object"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x43""Cette fonction instancie un titre pour l'interpolation d'une courbe"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x11""Object Identifer"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x16""L'identifiant du titre"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x10""Le prix du titre"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x1B""Trigger for recalculation  ")) ;</t>
+  </si>
+  <si>
+    <t>xlInitiateSwaptionHelper</t>
+  </si>
+  <si>
+    <t>OBJECT.VOLATILITY.SURFACE.SWAPTION.HELPER</t>
+  </si>
+  <si>
+    <t>xlObjectTools - Object</t>
+  </si>
+  <si>
+    <t>This function instanciates a swaption helper for volatility surface calibration purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SwaptionHelper::SwaptionHelper(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              const Date&amp; exerciseDate,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              const Date&amp; endDate,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              const Handle&lt;Quote&gt;&amp; volatility,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              const boost::shared_ptr&lt;IborIndex&gt;&amp; index,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              const Period&amp; fixedLegTenor,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              const DayCounter&amp; fixedLegDayCounter,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              const DayCounter&amp; floatingLegDayCounter,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              const Handle&lt;YieldTermStructure&gt;&amp; termStructure,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              CalibrationHelper::CalibrationErrorType errorType,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              const Real strike, const Real nominal)</t>
+  </si>
+  <si>
+    <t>identifier,exercice,maturity,volatility,index,fixed leg tenor,fixed leg daycounter,float leg daycounter,curve,error type,strike,nominal,trigger</t>
+  </si>
+  <si>
+    <t>PCEEECCCCCPPPP#</t>
+  </si>
+  <si>
+    <t>The exercice date</t>
+  </si>
+  <si>
+    <t>The end date</t>
+  </si>
+  <si>
+    <t>The quoted volatility</t>
+  </si>
+  <si>
+    <t>The fixing index</t>
+  </si>
+  <si>
+    <t>The fixed leg tenor</t>
+  </si>
+  <si>
+    <t>The fixed leg daycounter</t>
+  </si>
+  <si>
+    <t>The floating leg daycounter</t>
+  </si>
+  <si>
+    <t>The yield curve</t>
+  </si>
+  <si>
+    <t>The nominal (optional)</t>
+  </si>
+  <si>
+    <t>The strike rate (optional)</t>
+  </si>
+  <si>
+    <t>The calibration Error type (defaults to relative price error)</t>
   </si>
 </sst>
 </file>
@@ -425,7 +470,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -437,76 +482,88 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C1" t="str">
-        <f>"Excel(xlfRegister, 0, "&amp;SUM(D:D) + 2 &amp; ", &amp; xDll,"</f>
-        <v>Excel(xlfRegister, 0, 17, &amp; xDll,</v>
+        <f>"Excel(xlfRegister, 0, "&amp;SUM(D:D) + 1 &amp; ", &amp; xDll,"</f>
+        <v>Excel(xlfRegister, 0, 22, &amp; xDll,</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>DEC2HEX(LEN(B2))</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C37" si="0">" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x15""xlInstrumentConvexity"),</v>
+        <f t="shared" ref="C2:C9" si="0">" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),"</f>
+        <v xml:space="preserve"> TempStrNoSize("\x18""xlInitiateSwaptionHelper"),</v>
       </c>
       <c r="D2">
         <f>IF(C2&lt;&gt;"",1,0)</f>
         <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A22" si="1">DEC2HEX(LEN(B3))</f>
-        <v>8</v>
+        <v>F</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x08""PCPPECP#"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x0F""PCEEECCCCCPPPP#"),</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D37" si="2">IF(C3&lt;&gt;"",1,0)</f>
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f t="shared" si="1"/>
-        <v>E</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x0E""BOND.CONVEXITY"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x29""OBJECT.VOLATILITY.SURFACE.SWAPTION.HELPER"),</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>8F</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x38""identifier,value date,settlement,price,convetion,trigger"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x8F""identifier,exercice,maturity,volatility,index,fixed leg tenor,fixed leg daycounter,float leg daycounter,curve,error type,strike,nominal,trigger"),</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -525,22 +582,28 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x14""xlObjectTools - Bond"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x16""xlObjectTools - Object"),</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -556,6 +619,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
@@ -571,20 +637,20 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
-        <v>5C</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C9:C20" si="3">IF(B10="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A10)&lt;16,"0","")&amp;A10&amp;""""&amp;""""&amp;B10&amp;""""&amp;"),")</f>
-        <v xml:space="preserve"> TempStrNoSize("\x5C""This function calculates the convexity of a given bond for a given price and settlement date"),</v>
+        <f t="shared" ref="C10:C20" si="3">IF(B10="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A10)&lt;16,"0","")&amp;A10&amp;""""&amp;""""&amp;B10&amp;""""&amp;"),")</f>
+        <v xml:space="preserve"> TempStrNoSize("\x57""This function instanciates a swaption helper for volatility surface calibration purpose"),</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
@@ -600,7 +666,7 @@
         <v>1A</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="3"/>
@@ -611,209 +677,224 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
-        <v>1B</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1B""The price of the instrument"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x11""The exercice date"),</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
-        <v>1D</v>
+        <v>C</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1D""The valuation date (optional)"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x0C""The end date"),</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x30""The settlement date of the instrument (optional)"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x15""The quoted volatility"),</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x30""The rate convention of the instrument (optional)"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x10""The fixing index"),</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
-        <v>1C</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1C""Trigger for recalculation   "),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x13""The fixed leg tenor"),</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> TempStrNoSize("\x18""The fixed leg daycounter"),</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1B</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> TempStrNoSize("\x1B""The floating leg daycounter"),</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>F</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> TempStrNoSize("\x0F""The yield curve"),</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3D</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> TempStrNoSize("\x3D""The calibration Error type (defaults to relative price error)"),</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1A</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
       </c>
       <c r="C21" t="str">
         <f>IF(B21="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A21)&lt;16,"0","")&amp;A21&amp;""""&amp;""""&amp;B21&amp;""""&amp;"),")</f>
-        <v/>
+        <v xml:space="preserve"> TempStrNoSize("\x1A""The strike rate (optional)"),</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ref="C22:C37" si="4">IF(B22="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A22)&lt;16,"0","")&amp;A22&amp;""""&amp;""""&amp;B22&amp;""""&amp;"),")</f>
-        <v/>
+        <v xml:space="preserve"> TempStrNoSize("\x16""The nominal (optional)"),</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -826,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -839,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -851,6 +932,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C26" t="str">
@@ -861,6 +945,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C27" t="str">
@@ -870,6 +957,9 @@
       <c r="D27">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">

--- a/workbooks/register functions.xlsx
+++ b/workbooks/register functions.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve">            TempStrNoSize("\x01""1"),</t>
   </si>
@@ -32,9 +32,6 @@
     <t xml:space="preserve">            TempStrNoSize("\x00"""),</t>
   </si>
   <si>
-    <t>The name of the instrument</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Excel(xlfRegister, 0, 14, &amp; xDll,</t>
   </si>
   <si>
@@ -68,18 +65,6 @@
     <t xml:space="preserve">            TempStrNoSize("\x1B""Trigger for recalculation  ")) ;</t>
   </si>
   <si>
-    <t>xlInitiateSwaptionHelper</t>
-  </si>
-  <si>
-    <t>OBJECT.VOLATILITY.SURFACE.SWAPTION.HELPER</t>
-  </si>
-  <si>
-    <t>xlObjectTools - Object</t>
-  </si>
-  <si>
-    <t>This function instanciates a swaption helper for volatility surface calibration purpose</t>
-  </si>
-  <si>
     <t xml:space="preserve">    SwaptionHelper::SwaptionHelper(</t>
   </si>
   <si>
@@ -113,43 +98,40 @@
     <t xml:space="preserve">                              const Real strike, const Real nominal)</t>
   </si>
   <si>
-    <t>identifier,exercice,maturity,volatility,index,fixed leg tenor,fixed leg daycounter,float leg daycounter,curve,error type,strike,nominal,trigger</t>
-  </si>
-  <si>
-    <t>PCEEECCCCCPPPP#</t>
-  </si>
-  <si>
-    <t>The exercice date</t>
-  </si>
-  <si>
-    <t>The end date</t>
-  </si>
-  <si>
-    <t>The quoted volatility</t>
-  </si>
-  <si>
-    <t>The fixing index</t>
-  </si>
-  <si>
-    <t>The fixed leg tenor</t>
-  </si>
-  <si>
-    <t>The fixed leg daycounter</t>
-  </si>
-  <si>
-    <t>The floating leg daycounter</t>
-  </si>
-  <si>
-    <t>The yield curve</t>
-  </si>
-  <si>
-    <t>The nominal (optional)</t>
-  </si>
-  <si>
-    <t>The strike rate (optional)</t>
-  </si>
-  <si>
-    <t>The calibration Error type (defaults to relative price error)</t>
+    <t>xlInstrumentCostOfCarry</t>
+  </si>
+  <si>
+    <t>PCCEEEP#</t>
+  </si>
+  <si>
+    <t>INSTRUMENT.COST.OF.CARRY</t>
+  </si>
+  <si>
+    <t>instrument,curve,price,start date,end date,trigger</t>
+  </si>
+  <si>
+    <t>xlObjectTools - Bond</t>
+  </si>
+  <si>
+    <t>This function calculates the final price of the bond deducing cost-of-carry. The intermediates coupons are reinvested at the specified curve rates</t>
+  </si>
+  <si>
+    <t>Instrument identifier</t>
+  </si>
+  <si>
+    <t>Curve identifier</t>
+  </si>
+  <si>
+    <t>Price of the instrument at the beginning of the period</t>
+  </si>
+  <si>
+    <t>Start date of the carry period</t>
+  </si>
+  <si>
+    <t>End date of the carry period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triggers the computation (optional)  </t>
   </si>
 </sst>
 </file>
@@ -470,7 +452,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -483,87 +465,87 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C1" t="str">
         <f>"Excel(xlfRegister, 0, "&amp;SUM(D:D) + 1 &amp; ", &amp; xDll,"</f>
-        <v>Excel(xlfRegister, 0, 22, &amp; xDll,</v>
+        <v>Excel(xlfRegister, 0, 16, &amp; xDll,</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>DEC2HEX(LEN(B2))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C9" si="0">" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x18""xlInitiateSwaptionHelper"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x17""xlInstrumentCostOfCarry"),</v>
       </c>
       <c r="D2">
         <f>IF(C2&lt;&gt;"",1,0)</f>
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A22" si="1">DEC2HEX(LEN(B3))</f>
-        <v>F</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x0F""PCEEECCCCCPPPP#"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x08""PCCEEEP#"),</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D37" si="2">IF(C3&lt;&gt;"",1,0)</f>
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x29""OBJECT.VOLATILITY.SURFACE.SWAPTION.HELPER"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x18""INSTRUMENT.COST.OF.CARRY"),</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f t="shared" si="1"/>
-        <v>8F</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x8F""identifier,exercice,maturity,volatility,index,fixed leg tenor,fixed leg daycounter,float leg daycounter,curve,error type,strike,nominal,trigger"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x32""instrument,curve,price,start date,end date,trigger"),</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -583,20 +565,20 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x16""xlObjectTools - Object"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x14""xlObjectTools - Bond"),</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
@@ -620,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -643,14 +625,14 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ref="C10:C20" si="3">IF(B10="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A10)&lt;16,"0","")&amp;A10&amp;""""&amp;""""&amp;B10&amp;""""&amp;"),")</f>
-        <v xml:space="preserve"> TempStrNoSize("\x57""This function instanciates a swaption helper for volatility surface calibration purpose"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x92""This function calculates the final price of the bond deducing cost-of-carry. The intermediates coupons are reinvested at the specified curve rates"),</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
@@ -663,114 +645,114 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
-        <v>1A</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1A""The name of the instrument"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x15""Instrument identifier"),</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""The exercice date"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x10""Curve identifier"),</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x0C""The end date"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x36""Price of the instrument at the beginning of the period"),</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>1E</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x15""The quoted volatility"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x1E""Start date of the carry period"),</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1C</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x10""The fixing index"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x1C""End date of the carry period"),</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x13""The fixed leg tenor"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x25""Triggers the computation (optional)  "),</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
@@ -780,121 +762,103 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x18""The fixed leg daycounter"),</v>
+        <v/>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
-        <v>1B</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1B""The floating leg daycounter"),</v>
+        <v/>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x0F""The yield curve"),</v>
+        <v/>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
-        <v>3D</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> TempStrNoSize("\x3D""The calibration Error type (defaults to relative price error)"),</v>
+        <v/>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
-        <v>1A</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C21" t="str">
         <f>IF(B21="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A21)&lt;16,"0","")&amp;A21&amp;""""&amp;""""&amp;B21&amp;""""&amp;"),")</f>
-        <v xml:space="preserve"> TempStrNoSize("\x1A""The strike rate (optional)"),</v>
+        <v/>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ref="C22:C37" si="4">IF(B22="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A22)&lt;16,"0","")&amp;A22&amp;""""&amp;""""&amp;B22&amp;""""&amp;"),")</f>
-        <v xml:space="preserve"> TempStrNoSize("\x16""The nominal (optional)"),</v>
+        <v/>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -907,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -920,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -933,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -946,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -959,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
